--- a/address.xlsx
+++ b/address.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egoing\Desktop\hallym-git-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{236AB66E-A2F5-4D1F-8DFD-18E90C8FF7CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22F3022-77FA-4680-ABEC-098678943558}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9017" xr2:uid="{D6D7F92C-7311-48B1-9568-F31FC19782D5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>name</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>seoul</t>
+  </si>
+  <si>
+    <t>duru</t>
   </si>
 </sst>
 </file>
@@ -391,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1623B898-F34A-4268-A141-2ED4244DF2A9}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -421,6 +424,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
